--- a/requirements/Requirements Excel/Requirement Streamlit App.xlsx
+++ b/requirements/Requirements Excel/Requirement Streamlit App.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Git\Bird_Requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Git\Bird_Requirements\requirements\Requirements Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD78E516-A345-4796-9516-6361708603FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D511C0D1-597C-4EC7-9987-CE47F108E235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02421E9F-6F91-4F88-92F9-C987603F6219}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>Press button</t>
   </si>
   <si>
-    <t>R6</t>
-  </si>
-  <si>
     <t>Webpage</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Return prediction</t>
+  </si>
+  <si>
+    <t>R8</t>
   </si>
 </sst>
 </file>
@@ -597,7 +597,7 @@
   <dimension ref="B1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -624,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5"/>
@@ -634,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -644,7 +644,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -712,13 +712,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -726,13 +726,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -743,7 +743,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>13</v>
